--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/UTAH_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/UTAH_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D993"/>
+  <dimension ref="A1:D987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASIENTOS</t>
+          <t>Asientos</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>CALVILLO</t>
+          <t>Calvillo</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>PABELLÓN DE ARTEAGA</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DE GRACIA</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TEPEZALÁ</t>
+          <t>Tepezalá</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C10">
@@ -504,12 +504,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C11">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C12">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TECATE</t>
+          <t>Tecate</t>
         </is>
       </c>
       <c r="C13">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C14">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15">
@@ -574,12 +574,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COMONDÚ</t>
+          <t>Comondú</t>
         </is>
       </c>
       <c r="C16">
@@ -592,7 +592,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C17">
@@ -605,7 +605,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>Loreto</t>
         </is>
       </c>
       <c r="C18">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>LOS CABOS</t>
+          <t>Los Cabos</t>
         </is>
       </c>
       <c r="C19">
@@ -631,7 +631,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>MULEGÉ</t>
+          <t>Mulegé</t>
         </is>
       </c>
       <c r="C20">
@@ -644,7 +644,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21">
@@ -657,12 +657,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C22">
@@ -675,7 +675,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>HOPELCHÉN</t>
+          <t>Hopelchén</t>
         </is>
       </c>
       <c r="C23">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C24">
@@ -701,12 +701,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>ALTAMIRANO</t>
+          <t>Altamirano</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>AMATÁN</t>
+          <t>Amatán</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>BELLA VISTA</t>
+          <t>Bella Vista</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHAPULTENANGO</t>
+          <t>Chapultenango</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>CHENALHÓ</t>
+          <t>Chenalhó</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHIAPA DE CORZO</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>CHILÓN</t>
+          <t>Chilón</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>CINTALAPA</t>
+          <t>Cintalapa</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>COPAINALÁ</t>
+          <t>Copainalá</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C43">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>LA INDEPENDENCIA</t>
+          <t>La Independencia</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAZATÁN</t>
+          <t>Mazatán</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>OCOZOCOAUTLA DE ESPINOSA</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C50">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>OSTUACÁN</t>
+          <t>Ostuacán</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>OXCHUC</t>
+          <t>Oxchuc</t>
         </is>
       </c>
       <c r="C52">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C53">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>PANTELHÓ</t>
+          <t>Pantelhó</t>
         </is>
       </c>
       <c r="C54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>REFORMA</t>
+          <t>Reforma</t>
         </is>
       </c>
       <c r="C56">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C57">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>SAN JUAN CANCUC</t>
+          <t>San Juan Cancuc</t>
         </is>
       </c>
       <c r="C58">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>SIMOJOVEL</t>
+          <t>Simojovel</t>
         </is>
       </c>
       <c r="C59">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C60">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C61">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>Tuxtla Chico</t>
         </is>
       </c>
       <c r="C64">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C65">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C66">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>VILLA CORZO</t>
+          <t>Villa Corzo</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>VILLAFLORES</t>
+          <t>Villaflores</t>
         </is>
       </c>
       <c r="C68">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C69">
@@ -1291,12 +1291,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ALDAMA</t>
+          <t>Aldama</t>
         </is>
       </c>
       <c r="C70">
@@ -1309,7 +1309,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>AQUILES SERDÁN</t>
+          <t>Aquiles Serdán</t>
         </is>
       </c>
       <c r="C71">
@@ -1322,7 +1322,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>ASCENSIÓN</t>
+          <t>Ascensión</t>
         </is>
       </c>
       <c r="C72">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>BOCOYNA</t>
+          <t>Bocoyna</t>
         </is>
       </c>
       <c r="C73">
@@ -1348,7 +1348,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>BUENAVENTURA</t>
+          <t>Buenaventura</t>
         </is>
       </c>
       <c r="C74">
@@ -1361,7 +1361,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="C75">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>CASAS GRANDES</t>
+          <t>Casas Grandes</t>
         </is>
       </c>
       <c r="C76">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C77">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C78">
@@ -1413,7 +1413,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C79">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>EL TULE</t>
+          <t>El Tule</t>
         </is>
       </c>
       <c r="C80">
@@ -1439,7 +1439,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>GALEANA</t>
+          <t>Galeana</t>
         </is>
       </c>
       <c r="C81">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C82">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>GÓMEZ FARÍAS</t>
+          <t>Gómez Farías</t>
         </is>
       </c>
       <c r="C83">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>HIDALGO DEL PARRAL</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C84">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>HUEJOTITÁN</t>
+          <t>Huejotitán</t>
         </is>
       </c>
       <c r="C85">
@@ -1504,7 +1504,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>IGNACIO ZARAGOZA</t>
+          <t>Ignacio Zaragoza</t>
         </is>
       </c>
       <c r="C86">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>JANOS</t>
+          <t>Janos</t>
         </is>
       </c>
       <c r="C87">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C88">
@@ -1543,7 +1543,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C89">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>LÓPEZ</t>
+          <t>López</t>
         </is>
       </c>
       <c r="C90">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>MADERA</t>
+          <t>Madera</t>
         </is>
       </c>
       <c r="C91">
@@ -1582,7 +1582,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>MATACHÍ</t>
+          <t>Matachí</t>
         </is>
       </c>
       <c r="C92">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>NAMIQUIPA</t>
+          <t>Namiquipa</t>
         </is>
       </c>
       <c r="C93">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>NUEVO CASAS GRANDES</t>
+          <t>Nuevo Casas Grandes</t>
         </is>
       </c>
       <c r="C94">
@@ -1621,7 +1621,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C95">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL ORO</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C96">
@@ -1647,7 +1647,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>Santa Bárbara</t>
         </is>
       </c>
       <c r="C97">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>SANTA ISABEL</t>
+          <t>Santa Isabel</t>
         </is>
       </c>
       <c r="C98">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>SATEVÓ</t>
+          <t>Satevó</t>
         </is>
       </c>
       <c r="C99">
@@ -1686,7 +1686,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>SAUCILLO</t>
+          <t>Saucillo</t>
         </is>
       </c>
       <c r="C100">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>TEMÓSACHIC</t>
+          <t>Temósachic</t>
         </is>
       </c>
       <c r="C101">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>VALLE DE ZARAGOZA</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C102">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C103">
@@ -1738,12 +1738,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C104">
@@ -1756,7 +1756,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C105">
@@ -1769,7 +1769,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C106">
@@ -1782,7 +1782,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C107">
@@ -1795,7 +1795,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C108">
@@ -1808,7 +1808,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C109">
@@ -1821,7 +1821,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C110">
@@ -1834,7 +1834,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C111">
@@ -1847,7 +1847,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C112">
@@ -1860,7 +1860,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C113">
@@ -1873,7 +1873,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>MILPA ALTA</t>
+          <t>Milpa Alta</t>
         </is>
       </c>
       <c r="C114">
@@ -1886,7 +1886,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C115">
@@ -1899,7 +1899,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C116">
@@ -1912,7 +1912,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>XOCHIMILCO</t>
+          <t>Xochimilco</t>
         </is>
       </c>
       <c r="C117">
@@ -1925,7 +1925,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C118">
@@ -1938,7 +1938,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C119">
@@ -1951,12 +1951,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>Acuña</t>
         </is>
       </c>
       <c r="C120">
@@ -1969,7 +1969,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C121">
@@ -1982,7 +1982,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>PIEDRAS NEGRAS</t>
+          <t>Piedras Negras</t>
         </is>
       </c>
       <c r="C122">
@@ -1995,7 +1995,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>SALTILLO</t>
+          <t>Saltillo</t>
         </is>
       </c>
       <c r="C123">
@@ -2008,7 +2008,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C124">
@@ -2021,7 +2021,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C125">
@@ -2034,12 +2034,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ARMERÍA</t>
+          <t>Armería</t>
         </is>
       </c>
       <c r="C126">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C127">
@@ -2065,7 +2065,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>COMALA</t>
+          <t>Comala</t>
         </is>
       </c>
       <c r="C128">
@@ -2078,7 +2078,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>COQUIMATLÁN</t>
+          <t>Coquimatlán</t>
         </is>
       </c>
       <c r="C129">
@@ -2091,7 +2091,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN</t>
+          <t>Ixtlahuacán</t>
         </is>
       </c>
       <c r="C130">
@@ -2104,7 +2104,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>MANZANILLO</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="C131">
@@ -2117,7 +2117,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>TECOMÁN</t>
+          <t>Tecomán</t>
         </is>
       </c>
       <c r="C132">
@@ -2130,7 +2130,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>VILLA DE ÁLVAREZ</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C133">
@@ -2143,7 +2143,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C134">
@@ -2156,12 +2156,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C135">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>CONETO DE COMONFORT</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C136">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>CUENCAMÉ</t>
+          <t>Cuencamé</t>
         </is>
       </c>
       <c r="C137">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C138">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C139">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>GÓMEZ PALACIO</t>
+          <t>Gómez Palacio</t>
         </is>
       </c>
       <c r="C140">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C141">
@@ -2252,7 +2252,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>LERDO</t>
+          <t>Lerdo</t>
         </is>
       </c>
       <c r="C142">
@@ -2265,7 +2265,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>MAPIMÍ</t>
+          <t>Mapimí</t>
         </is>
       </c>
       <c r="C143">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>MEZQUITAL</t>
+          <t>Mezquital</t>
         </is>
       </c>
       <c r="C144">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>NOMBRE DE DIOS</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>PEÑÓN BLANCO</t>
+          <t>Peñón Blanco</t>
         </is>
       </c>
       <c r="C146">
@@ -2317,7 +2317,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>POANAS</t>
+          <t>Poanas</t>
         </is>
       </c>
       <c r="C147">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>RODEO</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="C148">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>SAN DIMAS</t>
+          <t>San Dimas</t>
         </is>
       </c>
       <c r="C149">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C150">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>SANTIAGO PAPASQUIARO</t>
+          <t>Santiago Papasquiaro</t>
         </is>
       </c>
       <c r="C151">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>TAMAZULA</t>
+          <t>Tamazula</t>
         </is>
       </c>
       <c r="C152">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>TOPIA</t>
+          <t>Topia</t>
         </is>
       </c>
       <c r="C153">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C154">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C155">
@@ -2434,12 +2434,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ALMOLOYA DEL RÍO</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C156">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>AMANALCO</t>
+          <t>Amanalco</t>
         </is>
       </c>
       <c r="C157">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>AMATEPEC</t>
+          <t>Amatepec</t>
         </is>
       </c>
       <c r="C158">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>AMECAMECA</t>
+          <t>Amecameca</t>
         </is>
       </c>
       <c r="C159">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>APAXCO</t>
+          <t>Apaxco</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>ATLAUTLA</t>
+          <t>Atlautla</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>CALIMAYA</t>
+          <t>Calimaya</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C165">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>CHAPA DE MOTA</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C166">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>CHICONCUAC</t>
+          <t>Chiconcuac</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C169">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN</t>
+          <t>Cuautitlán</t>
         </is>
       </c>
       <c r="C170">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN IZCALLI</t>
+          <t>Cuautitlán Izcalli</t>
         </is>
       </c>
       <c r="C171">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>DONATO GUERRA</t>
+          <t>Donato Guerra</t>
         </is>
       </c>
       <c r="C172">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C173">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>IXTAPALUCA</t>
+          <t>Ixtapaluca</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C176">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>IXTLAHUACA</t>
+          <t>Ixtlahuaca</t>
         </is>
       </c>
       <c r="C177">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>JIQUIPILCO</t>
+          <t>Jiquipilco</t>
         </is>
       </c>
       <c r="C179">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>JOCOTITLÁN</t>
+          <t>Jocotitlán</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>JOQUICINGO</t>
+          <t>Joquicingo</t>
         </is>
       </c>
       <c r="C181">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C182">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C183">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C184">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>NICOLÁS ROMERO</t>
+          <t>Nicolás Romero</t>
         </is>
       </c>
       <c r="C185">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>OCUILAN</t>
+          <t>Ocuilan</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>OTUMBA</t>
+          <t>Otumba</t>
         </is>
       </c>
       <c r="C187">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>OZUMBA</t>
+          <t>Ozumba</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>POLOTITLÁN</t>
+          <t>Polotitlán</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL RINCÓN</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C191">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>SAN MATEO ATENCO</t>
+          <t>San Mateo Atenco</t>
         </is>
       </c>
       <c r="C192">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>SANTO TOMÁS</t>
+          <t>Santo Tomás</t>
         </is>
       </c>
       <c r="C193">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>TECÁMAC</t>
+          <t>Tecámac</t>
         </is>
       </c>
       <c r="C194">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>TEMASCALAPA</t>
+          <t>Temascalapa</t>
         </is>
       </c>
       <c r="C196">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>TENANGO DEL VALLE</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>TEOTIHUACÁN</t>
+          <t>Teotihuacán</t>
         </is>
       </c>
       <c r="C200">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>TEQUIXQUIAC</t>
+          <t>Tequixquiac</t>
         </is>
       </c>
       <c r="C201">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>TEXCALTITLÁN</t>
+          <t>Texcaltitlán</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>TEZOYUCA</t>
+          <t>Tezoyuca</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>TIMILPAN</t>
+          <t>Timilpan</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>TLALMANALCO</t>
+          <t>Tlalmanalco</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C207">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>TLATLAYA</t>
+          <t>Tlatlaya</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C209">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>TONATICO</t>
+          <t>Tonatico</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>TULTEPEC</t>
+          <t>Tultepec</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>VILLA DE ALLENDE</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C213">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>ZUMPAHUACÁN</t>
+          <t>Zumpahuacán</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>ZUMPANGO</t>
+          <t>Zumpango</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C218">
@@ -3258,12 +3258,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C219">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C220">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C221">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C222">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C223">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>COMONFORT</t>
+          <t>Comonfort</t>
         </is>
       </c>
       <c r="C224">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>CUERÁMARO</t>
+          <t>Cuerámaro</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>DOCTOR MORA</t>
+          <t>Doctor Mora</t>
         </is>
       </c>
       <c r="C227">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C228">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C229">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C230">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>JARAL DEL PROGRESO</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C231">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C232">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C233">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C234">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>MOROLEÓN</t>
+          <t>Moroleón</t>
         </is>
       </c>
       <c r="C235">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C236">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C237">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C238">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C239">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C240">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE LA UNIÓN</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C241">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C242">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C243">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C247">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>SANTIAGO MARAVATÍO</t>
+          <t>Santiago Maravatío</t>
         </is>
       </c>
       <c r="C248">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>SILAO DE LA VICTORIA</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C249">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
+          <t>Tarimoro</t>
         </is>
       </c>
       <c r="C250">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>Uriangato</t>
         </is>
       </c>
       <c r="C251">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>VILLAGRÁN</t>
+          <t>Villagrán</t>
         </is>
       </c>
       <c r="C253">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C254">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C255">
@@ -3744,12 +3744,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>ACATEPEC</t>
+          <t>Acatepec</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>AJUCHITLÁN DEL PROGRESO</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>ALCOZAUCA DE GUERRERO</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>ALPOYECA</t>
+          <t>Alpoyeca</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>APAXTLA</t>
+          <t>Apaxtla</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>ATENANGO DEL RÍO</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>Azoyú</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>BUENAVISTA DE CUÉLLAR</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>COAHUAYUTLA DE JOSÉ MARÍA IZAZAGA</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>COPALA</t>
+          <t>Copala</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>COPALILLO</t>
+          <t>Copalillo</t>
         </is>
       </c>
       <c r="C276">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>CUAJINICUILAPA</t>
+          <t>Cuajinicuilapa</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>CUAUTEPEC</t>
+          <t>Cuautepec</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>CUETZALA DEL PROGRESO</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>CUTZAMALA DE PINZÓN</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>EDUARDO NERI</t>
+          <t>Eduardo Neri</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>GENERAL CANUTO A. NERI</t>
+          <t>General Canuto A. Neri</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>GENERAL HELIODORO CASTILLO</t>
+          <t>General Heliodoro Castillo</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>HUAMUXTITLÁN</t>
+          <t>Huamuxtitlán</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>HUITZUCO DE LOS FIGUEROA</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>IGUALAPA</t>
+          <t>Igualapa</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>JUCHITÁN</t>
+          <t>Juchitán</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>LA UNIÓN DE ISIDORO MONTES DE OCA</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>LEONARDO BRAVO</t>
+          <t>Leonardo Bravo</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>MARQUELIA</t>
+          <t>Marquelia</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>METLATÓNOC</t>
+          <t>Metlatónoc</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>MOCHITLÁN</t>
+          <t>Mochitlán</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>OLINALÁ</t>
+          <t>Olinalá</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>PEDRO ASCENCIO ALQUISIRAS</t>
+          <t>Pedro Ascencio Alquisiras</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>PUNGARABATO</t>
+          <t>Pungarabato</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>TAXCO DE ALARCÓN</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>TEPECOACUILCO DE TRUJANO</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>TETIPAC</t>
+          <t>Tetipac</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>TIXTLA DE GUERRERO</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>TLALCHAPA</t>
+          <t>Tlalchapa</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>TLALIXTAQUILLA DE MALDONADO</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C317">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>TLAPEHUALA</t>
+          <t>Tlapehuala</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C319">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>XOCHIHUEHUETLÁN</t>
+          <t>Xochihuehuetlán</t>
         </is>
       </c>
       <c r="C320">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>XOCHISTLAHUACA</t>
+          <t>Xochistlahuaca</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>ZIRÁNDARO</t>
+          <t>Zirándaro</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>ZITLALA</t>
+          <t>Zitlala</t>
         </is>
       </c>
       <c r="C325">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,12 +4672,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C327">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C328">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>AJACUBA</t>
+          <t>Ajacuba</t>
         </is>
       </c>
       <c r="C329">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C330">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL GRANDE</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C331">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>CALNALI</t>
+          <t>Calnali</t>
         </is>
       </c>
       <c r="C332">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>CARDONAL</t>
+          <t>Cardonal</t>
         </is>
       </c>
       <c r="C333">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>CHILCUAUTLA</t>
+          <t>Chilcuautla</t>
         </is>
       </c>
       <c r="C334">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>CUAUTEPEC DE HINOJOSA</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C335">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>EL ARENAL</t>
+          <t>El Arenal</t>
         </is>
       </c>
       <c r="C336">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>ELOXOCHITLÁN</t>
+          <t>Eloxochitlán</t>
         </is>
       </c>
       <c r="C337">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C338">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C339">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>HUASCA DE OCAMPO</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C340">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>HUAZALINGO</t>
+          <t>Huazalingo</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>LA MISIÓN</t>
+          <t>La Misión</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>MIXQUIAHUALA DE JUÁREZ</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>PISAFLORES</t>
+          <t>Pisaflores</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>SAN BARTOLO TUTOTEPEC</t>
+          <t>San Bartolo Tutotepec</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>SAN SALVADOR</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>SINGUILUCAN</t>
+          <t>Singuilucan</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>TENANGO DE DORIA</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>TEPEAPULCO</t>
+          <t>Tepeapulco</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>TEPEHUACÁN DE GUERRERO</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>TEPEJI DEL RÍO DE OCAMPO</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C355">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>TEZONTEPEC DE ALDAMA</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>TLAHUILTEPA</t>
+          <t>Tlahuiltepa</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>TOLCAYUCA</t>
+          <t>Tolcayuca</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>TULA DE ALLENDE</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>XOCHIATIPAN</t>
+          <t>Xochiatipan</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>XOCHICOATLÁN</t>
+          <t>Xochicoatlán</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>ZACUALTIPÁN DE ÁNGELES</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,12 +5184,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>ACATLÁN DE JUÁREZ</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C366">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>AMECA</t>
+          <t>Ameca</t>
         </is>
       </c>
       <c r="C367">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>ARANDAS</t>
+          <t>Arandas</t>
         </is>
       </c>
       <c r="C368">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL ALTO</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C369">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>ATOYAC</t>
+          <t>Atoyac</t>
         </is>
       </c>
       <c r="C370">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C371">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>AYOTLÁN</t>
+          <t>Ayotlán</t>
         </is>
       </c>
       <c r="C372">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>BOLAÑOS</t>
+          <t>Bolaños</t>
         </is>
       </c>
       <c r="C373">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>CABO CORRIENTES</t>
+          <t>Cabo Corrientes</t>
         </is>
       </c>
       <c r="C374">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>CASIMIRO CASTILLO</t>
+          <t>Casimiro Castillo</t>
         </is>
       </c>
       <c r="C375">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>CAÑADAS DE OBREGÓN</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C376">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>CHAPALA</t>
+          <t>Chapala</t>
         </is>
       </c>
       <c r="C377">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>CIHUATLÁN</t>
+          <t>Cihuatlán</t>
         </is>
       </c>
       <c r="C378">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C379">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN DE GARCÍA BARRAGÁN</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C380">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>CUQUÍO</t>
+          <t>Cuquío</t>
         </is>
       </c>
       <c r="C381">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C382">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>EL ARENAL</t>
+          <t>El Arenal</t>
         </is>
       </c>
       <c r="C383">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>EL GRULLO</t>
+          <t>El Grullo</t>
         </is>
       </c>
       <c r="C384">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>EL SALTO</t>
+          <t>El Salto</t>
         </is>
       </c>
       <c r="C385">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>ETZATLÁN</t>
+          <t>Etzatlán</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C387">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>HOSTOTIPAQUILLO</t>
+          <t>Hostotipaquillo</t>
         </is>
       </c>
       <c r="C388">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>HUEJUQUILLA EL ALTO</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>HUEJÚCAR</t>
+          <t>Huejúcar</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN DEL RÍO</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C391">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C392">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>JUANACATLÁN</t>
+          <t>Juanacatlán</t>
         </is>
       </c>
       <c r="C393">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>JUCHITLÁN</t>
+          <t>Juchitlán</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C395">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>LA HUERTA</t>
+          <t>La Huerta</t>
         </is>
       </c>
       <c r="C396">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C397">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C398">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>MASCOTA</t>
+          <t>Mascota</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>MAZAMITLA</t>
+          <t>Mazamitla</t>
         </is>
       </c>
       <c r="C400">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>MEZQUITIC</t>
+          <t>Mezquitic</t>
         </is>
       </c>
       <c r="C401">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>MIXTLÁN</t>
+          <t>Mixtlán</t>
         </is>
       </c>
       <c r="C402">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>OCOTLÁN</t>
+          <t>Ocotlán</t>
         </is>
       </c>
       <c r="C403">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>OJUELOS DE JALISCO</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C404">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>PIHUAMO</t>
+          <t>Pihuamo</t>
         </is>
       </c>
       <c r="C405">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>PONCITLÁN</t>
+          <t>Poncitlán</t>
         </is>
       </c>
       <c r="C406">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>PUERTO VALLARTA</t>
+          <t>Puerto Vallarta</t>
         </is>
       </c>
       <c r="C407">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>QUITUPAN</t>
+          <t>Quitupan</t>
         </is>
       </c>
       <c r="C408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LA BARRANCA</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C409">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE ALEJANDRÍA</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C410">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LOS LAGOS</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>SAN JUANITO DE ESCOBEDO</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>SAN MARTÍN HIDALGO</t>
+          <t>San Martín Hidalgo</t>
         </is>
       </c>
       <c r="C413">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL ALTO</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C414">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C415">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN DEL OESTE</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C416">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>SAYULA</t>
+          <t>Sayula</t>
         </is>
       </c>
       <c r="C417">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>TALA</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C418">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>TALPA DE ALLENDE</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C419">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>TAMAZULA DE GORDIANO</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C420">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>TECALITLÁN</t>
+          <t>Tecalitlán</t>
         </is>
       </c>
       <c r="C421">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>TENAMAXTLÁN</t>
+          <t>Tenamaxtlán</t>
         </is>
       </c>
       <c r="C422">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>TEOCALTICHE</t>
+          <t>Teocaltiche</t>
         </is>
       </c>
       <c r="C423">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>TEOCUITATLÁN DE CORONA</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C424">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C425">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>TEQUILA</t>
+          <t>Tequila</t>
         </is>
       </c>
       <c r="C426">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>TEUCHITLÁN</t>
+          <t>Teuchitlán</t>
         </is>
       </c>
       <c r="C427">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C428">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>TLAJOMULCO DE ZÚÑIGA</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C429">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>TOLIMÁN</t>
+          <t>Tolimán</t>
         </is>
       </c>
       <c r="C430">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C431">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>TONAYA</t>
+          <t>Tonaya</t>
         </is>
       </c>
       <c r="C433">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C434">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>UNIÓN DE SAN ANTONIO</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C435">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C436">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>VALLE DE JUÁREZ</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C437">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>VILLA CORONA</t>
+          <t>Villa Corona</t>
         </is>
       </c>
       <c r="C438">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>VILLA PURIFICACIÓN</t>
+          <t>Villa Purificación</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>YAHUALICA DE GONZÁLEZ GALLO</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C440">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>ZACOALCO DE TORRES</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C442">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>ZAPOTILTIC</t>
+          <t>Zapotiltic</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN DE VADILLO</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C444">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>ZAPOTLANEJO</t>
+          <t>Zapotlanejo</t>
         </is>
       </c>
       <c r="C445">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN DEL REY</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C446">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C447">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,12 +6268,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>AGUILILLA</t>
+          <t>Aguililla</t>
         </is>
       </c>
       <c r="C449">
@@ -6286,7 +6286,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C450">
@@ -6299,7 +6299,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>AQUILA</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="C451">
@@ -6312,7 +6312,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>ARIO</t>
+          <t>Ario</t>
         </is>
       </c>
       <c r="C452">
@@ -6325,7 +6325,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>ARTEAGA</t>
+          <t>Arteaga</t>
         </is>
       </c>
       <c r="C453">
@@ -6338,7 +6338,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>BRISEÑAS</t>
+          <t>Briseñas</t>
         </is>
       </c>
       <c r="C454">
@@ -6351,7 +6351,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="C455">
@@ -6364,7 +6364,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C456">
@@ -6377,7 +6377,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>CHARAPAN</t>
+          <t>Charapan</t>
         </is>
       </c>
       <c r="C457">
@@ -6390,7 +6390,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>CHARO</t>
+          <t>Charo</t>
         </is>
       </c>
       <c r="C458">
@@ -6403,7 +6403,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>CHERÁN</t>
+          <t>Cherán</t>
         </is>
       </c>
       <c r="C459">
@@ -6416,7 +6416,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>CHILCHOTA</t>
+          <t>Chilchota</t>
         </is>
       </c>
       <c r="C460">
@@ -6429,7 +6429,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>CHINICUILA</t>
+          <t>Chinicuila</t>
         </is>
       </c>
       <c r="C461">
@@ -6442,7 +6442,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>CHURUMUCO</t>
+          <t>Churumuco</t>
         </is>
       </c>
       <c r="C462">
@@ -6455,7 +6455,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>COAHUAYANA</t>
+          <t>Coahuayana</t>
         </is>
       </c>
       <c r="C463">
@@ -6468,7 +6468,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>COENEO</t>
+          <t>Coeneo</t>
         </is>
       </c>
       <c r="C464">
@@ -6481,7 +6481,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>COTIJA</t>
+          <t>Cotija</t>
         </is>
       </c>
       <c r="C465">
@@ -6494,7 +6494,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>CUITZEO</t>
+          <t>Cuitzeo</t>
         </is>
       </c>
       <c r="C466">
@@ -6507,7 +6507,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>ECUANDUREO</t>
+          <t>Ecuandureo</t>
         </is>
       </c>
       <c r="C467">
@@ -6520,7 +6520,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>ERONGARÍCUARO</t>
+          <t>Erongarícuaro</t>
         </is>
       </c>
       <c r="C468">
@@ -6533,7 +6533,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>GABRIEL ZAMORA</t>
+          <t>Gabriel Zamora</t>
         </is>
       </c>
       <c r="C469">
@@ -6546,7 +6546,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C470">
@@ -6559,7 +6559,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>HUANIQUEO</t>
+          <t>Huaniqueo</t>
         </is>
       </c>
       <c r="C471">
@@ -6572,7 +6572,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>HUETAMO</t>
+          <t>Huetamo</t>
         </is>
       </c>
       <c r="C472">
@@ -6585,7 +6585,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>IXTLÁN</t>
+          <t>Ixtlán</t>
         </is>
       </c>
       <c r="C473">
@@ -6598,7 +6598,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>JACONA</t>
+          <t>Jacona</t>
         </is>
       </c>
       <c r="C474">
@@ -6611,7 +6611,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C475">
@@ -6624,7 +6624,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>JIQUILPAN</t>
+          <t>Jiquilpan</t>
         </is>
       </c>
       <c r="C476">
@@ -6637,7 +6637,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>JOSÉ SIXTO VERDUZCO</t>
+          <t>José Sixto Verduzco</t>
         </is>
       </c>
       <c r="C477">
@@ -6650,7 +6650,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>JUNGAPEO</t>
+          <t>Jungapeo</t>
         </is>
       </c>
       <c r="C478">
@@ -6663,7 +6663,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>LA HUACANA</t>
+          <t>La Huacana</t>
         </is>
       </c>
       <c r="C479">
@@ -6676,7 +6676,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C480">
@@ -6689,7 +6689,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>LAGUNILLAS</t>
+          <t>Lagunillas</t>
         </is>
       </c>
       <c r="C481">
@@ -6702,7 +6702,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C482">
@@ -6715,7 +6715,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C483">
@@ -6728,7 +6728,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C484">
@@ -6741,7 +6741,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C485">
@@ -6754,7 +6754,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C486">
@@ -6767,7 +6767,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C487">
@@ -6780,7 +6780,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>NAHUATZEN</t>
+          <t>Nahuatzen</t>
         </is>
       </c>
       <c r="C488">
@@ -6793,7 +6793,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>NOCUPÉTARO</t>
+          <t>Nocupétaro</t>
         </is>
       </c>
       <c r="C489">
@@ -6806,7 +6806,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>NUEVO PARANGARICUTIRO</t>
+          <t>Nuevo Parangaricutiro</t>
         </is>
       </c>
       <c r="C490">
@@ -6819,7 +6819,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>NUMARÁN</t>
+          <t>Numarán</t>
         </is>
       </c>
       <c r="C491">
@@ -6832,7 +6832,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C492">
@@ -6845,7 +6845,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>PAJACUARÁN</t>
+          <t>Pajacuarán</t>
         </is>
       </c>
       <c r="C493">
@@ -6858,7 +6858,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>PANINDÍCUARO</t>
+          <t>Panindícuaro</t>
         </is>
       </c>
       <c r="C494">
@@ -6871,7 +6871,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C495">
@@ -6884,7 +6884,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>PARÁCUARO</t>
+          <t>Parácuaro</t>
         </is>
       </c>
       <c r="C496">
@@ -6897,7 +6897,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>PENJAMILLO</t>
+          <t>Penjamillo</t>
         </is>
       </c>
       <c r="C497">
@@ -6910,7 +6910,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C498">
@@ -6923,7 +6923,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>PURÉPERO</t>
+          <t>Purépero</t>
         </is>
       </c>
       <c r="C499">
@@ -6936,7 +6936,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C500">
@@ -6949,7 +6949,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>QUERÉNDARO</t>
+          <t>Queréndaro</t>
         </is>
       </c>
       <c r="C501">
@@ -6962,7 +6962,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>QUIROGA</t>
+          <t>Quiroga</t>
         </is>
       </c>
       <c r="C502">
@@ -6975,7 +6975,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>SAHUAYO</t>
+          <t>Sahuayo</t>
         </is>
       </c>
       <c r="C503">
@@ -6988,7 +6988,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>SALVADOR ESCALANTE</t>
+          <t>Salvador Escalante</t>
         </is>
       </c>
       <c r="C504">
@@ -7001,7 +7001,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>SENGUIO</t>
+          <t>Senguio</t>
         </is>
       </c>
       <c r="C505">
@@ -7014,7 +7014,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>SUSUPUATO</t>
+          <t>Susupuato</t>
         </is>
       </c>
       <c r="C506">
@@ -7027,7 +7027,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>TACÁMBARO</t>
+          <t>Tacámbaro</t>
         </is>
       </c>
       <c r="C507">
@@ -7040,7 +7040,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>TANCÍTARO</t>
+          <t>Tancítaro</t>
         </is>
       </c>
       <c r="C508">
@@ -7053,7 +7053,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>TANGAMANDAPIO</t>
+          <t>Tangamandapio</t>
         </is>
       </c>
       <c r="C509">
@@ -7066,7 +7066,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>TANGANCÍCUARO</t>
+          <t>Tangancícuaro</t>
         </is>
       </c>
       <c r="C510">
@@ -7079,7 +7079,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>TANHUATO</t>
+          <t>Tanhuato</t>
         </is>
       </c>
       <c r="C511">
@@ -7092,7 +7092,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>TARETAN</t>
+          <t>Taretan</t>
         </is>
       </c>
       <c r="C512">
@@ -7105,7 +7105,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>TARÍMBARO</t>
+          <t>Tarímbaro</t>
         </is>
       </c>
       <c r="C513">
@@ -7118,7 +7118,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>TEPALCATEPEC</t>
+          <t>Tepalcatepec</t>
         </is>
       </c>
       <c r="C514">
@@ -7131,7 +7131,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>TIQUICHEO DE NICOLÁS ROMERO</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C515">
@@ -7144,7 +7144,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>TUMBISCATÍO</t>
+          <t>Tumbiscatío</t>
         </is>
       </c>
       <c r="C516">
@@ -7157,7 +7157,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>TURICATO</t>
+          <t>Turicato</t>
         </is>
       </c>
       <c r="C517">
@@ -7170,7 +7170,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C518">
@@ -7183,7 +7183,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>TUZANTLA</t>
+          <t>Tuzantla</t>
         </is>
       </c>
       <c r="C519">
@@ -7196,7 +7196,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>TZINTZUNTZAN</t>
+          <t>Tzintzuntzan</t>
         </is>
       </c>
       <c r="C520">
@@ -7209,7 +7209,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C521">
@@ -7222,7 +7222,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C522">
@@ -7235,7 +7235,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>YURÉCUARO</t>
+          <t>Yurécuaro</t>
         </is>
       </c>
       <c r="C523">
@@ -7248,7 +7248,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C524">
@@ -7261,7 +7261,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C525">
@@ -7274,7 +7274,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>ZINAPÉCUARO</t>
+          <t>Zinapécuaro</t>
         </is>
       </c>
       <c r="C526">
@@ -7287,7 +7287,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>ZINÁPARO</t>
+          <t>Zináparo</t>
         </is>
       </c>
       <c r="C527">
@@ -7300,7 +7300,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C528">
@@ -7313,7 +7313,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C529">
@@ -7326,12 +7326,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>AMACUZAC</t>
+          <t>Amacuzac</t>
         </is>
       </c>
       <c r="C530">
@@ -7344,7 +7344,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>ATLATLAHUCAN</t>
+          <t>Atlatlahucan</t>
         </is>
       </c>
       <c r="C531">
@@ -7357,7 +7357,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>AXOCHIAPAN</t>
+          <t>Axochiapan</t>
         </is>
       </c>
       <c r="C532">
@@ -7370,7 +7370,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>AYALA</t>
+          <t>Ayala</t>
         </is>
       </c>
       <c r="C533">
@@ -7383,7 +7383,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>COATLÁN DEL RÍO</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C534">
@@ -7396,7 +7396,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C535">
@@ -7409,7 +7409,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C536">
@@ -7422,7 +7422,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C537">
@@ -7435,7 +7435,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>JIUTEPEC</t>
+          <t>Jiutepec</t>
         </is>
       </c>
       <c r="C538">
@@ -7448,7 +7448,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>JOJUTLA</t>
+          <t>Jojutla</t>
         </is>
       </c>
       <c r="C539">
@@ -7461,7 +7461,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>MAZATEPEC</t>
+          <t>Mazatepec</t>
         </is>
       </c>
       <c r="C540">
@@ -7474,7 +7474,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>MIACATLÁN</t>
+          <t>Miacatlán</t>
         </is>
       </c>
       <c r="C541">
@@ -7487,7 +7487,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>OCUITUCO</t>
+          <t>Ocuituco</t>
         </is>
       </c>
       <c r="C542">
@@ -7500,7 +7500,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>PUENTE DE IXTLA</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C543">
@@ -7513,7 +7513,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C544">
@@ -7526,7 +7526,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>TEMOAC</t>
+          <t>Temoac</t>
         </is>
       </c>
       <c r="C545">
@@ -7539,7 +7539,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>TETECALA</t>
+          <t>Tetecala</t>
         </is>
       </c>
       <c r="C546">
@@ -7552,7 +7552,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA</t>
+          <t>Tlalnepantla</t>
         </is>
       </c>
       <c r="C547">
@@ -7565,7 +7565,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>TLALTIZAPÁN DE ZAPATA</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C548">
@@ -7578,7 +7578,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
+          <t>Tlaquiltenango</t>
         </is>
       </c>
       <c r="C549">
@@ -7591,7 +7591,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>XOCHITEPEC</t>
+          <t>Xochitepec</t>
         </is>
       </c>
       <c r="C550">
@@ -7604,7 +7604,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>YAUTEPEC</t>
+          <t>Yautepec</t>
         </is>
       </c>
       <c r="C551">
@@ -7617,7 +7617,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>YECAPIXTLA</t>
+          <t>Yecapixtla</t>
         </is>
       </c>
       <c r="C552">
@@ -7630,7 +7630,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>ZACATEPEC</t>
+          <t>Zacatepec</t>
         </is>
       </c>
       <c r="C553">
@@ -7643,7 +7643,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C554">
@@ -7656,7 +7656,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C555">
@@ -7669,12 +7669,12 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>AHUACATLÁN</t>
+          <t>Ahuacatlán</t>
         </is>
       </c>
       <c r="C556">
@@ -7687,7 +7687,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>AMATLÁN DE CAÑAS</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C557">
@@ -7700,7 +7700,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>BAHÍA DE BANDERAS</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C558">
@@ -7713,7 +7713,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C559">
@@ -7726,7 +7726,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>DEL NAYAR</t>
+          <t>Del Nayar</t>
         </is>
       </c>
       <c r="C560">
@@ -7739,7 +7739,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>HUAJICORI</t>
+          <t>Huajicori</t>
         </is>
       </c>
       <c r="C561">
@@ -7752,7 +7752,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>IXTLÁN DEL RÍO</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C562">
@@ -7765,7 +7765,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>JALA</t>
+          <t>Jala</t>
         </is>
       </c>
       <c r="C563">
@@ -7778,7 +7778,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>LA YESCA</t>
+          <t>La Yesca</t>
         </is>
       </c>
       <c r="C564">
@@ -7791,7 +7791,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>ROSAMORADA</t>
+          <t>Rosamorada</t>
         </is>
       </c>
       <c r="C565">
@@ -7804,7 +7804,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>RUÍZ</t>
+          <t>Ruíz</t>
         </is>
       </c>
       <c r="C566">
@@ -7817,7 +7817,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
+          <t>San Blas</t>
         </is>
       </c>
       <c r="C567">
@@ -7830,7 +7830,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>SAN PEDRO LAGUNILLAS</t>
+          <t>San Pedro Lagunillas</t>
         </is>
       </c>
       <c r="C568">
@@ -7843,7 +7843,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL ORO</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C569">
@@ -7856,7 +7856,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C570">
@@ -7869,7 +7869,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>TECUALA</t>
+          <t>Tecuala</t>
         </is>
       </c>
       <c r="C571">
@@ -7882,7 +7882,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C572">
@@ -7895,7 +7895,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C573">
@@ -7908,7 +7908,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>XALISCO</t>
+          <t>Xalisco</t>
         </is>
       </c>
       <c r="C574">
@@ -7921,7 +7921,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C575">
@@ -7934,12 +7934,12 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>CADEREYTA JIMÉNEZ</t>
+          <t>Cadereyta Jiménez</t>
         </is>
       </c>
       <c r="C576">
@@ -7952,7 +7952,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>CERRALVO</t>
+          <t>Cerralvo</t>
         </is>
       </c>
       <c r="C577">
@@ -7965,7 +7965,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>DOCTOR ARROYO</t>
+          <t>Doctor Arroyo</t>
         </is>
       </c>
       <c r="C578">
@@ -7978,7 +7978,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C579">
@@ -7991,7 +7991,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C580">
@@ -8004,7 +8004,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS GARZA</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C581">
@@ -8017,7 +8017,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>SAN PEDRO GARZA GARCÍA</t>
+          <t>San Pedro Garza García</t>
         </is>
       </c>
       <c r="C582">
@@ -8030,7 +8030,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C583">
@@ -8043,12 +8043,12 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>ACATLÁN DE PÉREZ FIGUEROA</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>ASUNCIÓN IXTALTEPEC</t>
+          <t>Asunción Ixtaltepec</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>COSOLAPA</t>
+          <t>Cosolapa</t>
         </is>
       </c>
       <c r="C586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>CUYAMECALCO VILLA DE ZARAGOZA</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C587">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>GUEVEA DE HUMBOLDT</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C588">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE EJUTLA DE CRESPO</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE JUCHITÁN DE ZARAGOZA</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C590">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>HUAUTLA DE JIMÉNEZ</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>IXPANTEPEC NIEVES</t>
+          <t>Ixpantepec Nieves</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>IXTLÁN DE JUÁREZ</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>Loma Bonita</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>MAGDALENA JALTEPEC</t>
+          <t>Magdalena Jaltepec</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>MAGDALENA TEQUISISTLÁN</t>
+          <t>Magdalena Tequisistlán</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>MAZATLÁN VILLA DE FLORES</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>MESONES HIDALGO</t>
+          <t>Mesones Hidalgo</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>MÁRTIRES DE TACUBAYA</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>OCOTLÁN DE MORELOS</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>PLUMA HIDALGO</t>
+          <t>Pluma Hidalgo</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>SALINA CRUZ</t>
+          <t>Salina Cruz</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN ATENANGO</t>
+          <t>San Agustín Atenango</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN LOXICHA</t>
+          <t>San Agustín Loxicha</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>SAN ANTONIO TEPETLAPA</t>
+          <t>San Antonio Tepetlapa</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>SAN BLAS ATEMPA</t>
+          <t>San Blas Atempa</t>
         </is>
       </c>
       <c r="C609">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>SAN DIONISIO OCOTEPEC</t>
+          <t>San Dionisio Ocotepec</t>
         </is>
       </c>
       <c r="C610">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>SAN FELIPE TEJALÁPAM</t>
+          <t>San Felipe Tejalápam</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO SOLA</t>
+          <t>San Francisco Sola</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO TELIXTLAHUACA</t>
+          <t>San Francisco Telixtlahuaca</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>SAN GABRIEL MIXTEPEC</t>
+          <t>San Gabriel Mixtepec</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO TAVICHE</t>
+          <t>San Jerónimo Taviche</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO TLACOCHAHUAYA</t>
+          <t>San Jerónimo Tlacochahuaya</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA COIXTLAHUACA</t>
+          <t>San Juan Bautista Coixtlahuaca</t>
         </is>
       </c>
       <c r="C617">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA CUICATLÁN</t>
+          <t>San Juan Bautista Cuicatlán</t>
         </is>
       </c>
       <c r="C618">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA LO DE SOTO</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C619">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C620">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>SAN JUAN CACAHUATEPEC</t>
+          <t>San Juan Cacahuatepec</t>
         </is>
       </c>
       <c r="C621">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>SAN JUAN LALANA</t>
+          <t>San Juan Lalana</t>
         </is>
       </c>
       <c r="C622">
@@ -8555,7 +8555,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>SAN JUAN MIXTEPEC -DTO. 08 -</t>
+          <t>San Juan Mixtepec -Dto. 08 -</t>
         </is>
       </c>
       <c r="C623">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>SAN JUAN TEITA</t>
+          <t>San Juan Teita</t>
         </is>
       </c>
       <c r="C624">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="C625">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>SAN LORENZO TEXMELÚCAN</t>
+          <t>San Lorenzo Texmelúcan</t>
         </is>
       </c>
       <c r="C626">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TILCAJETE</t>
+          <t>San Martín Tilcajete</t>
         </is>
       </c>
       <c r="C627">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>SAN MATEO PIÑAS</t>
+          <t>San Mateo Piñas</t>
         </is>
       </c>
       <c r="C628">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>SAN MIGUEL ALOÁPAM</t>
+          <t>San Miguel Aloápam</t>
         </is>
       </c>
       <c r="C629">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>SAN PABLO COATLÁN</t>
+          <t>San Pablo Coatlán</t>
         </is>
       </c>
       <c r="C630">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>SAN PABLO CUATRO VENADOS</t>
+          <t>San Pablo Cuatro Venados</t>
         </is>
       </c>
       <c r="C631">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>SAN PEDRO HUAMELULA</t>
+          <t>San Pedro Huamelula</t>
         </is>
       </c>
       <c r="C632">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>SAN PEDRO MÁRTIR</t>
+          <t>San Pedro Mártir</t>
         </is>
       </c>
       <c r="C633">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C634">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>SAN PEDRO TEUTILA</t>
+          <t>San Pedro Teutila</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>SAN PEDRO Y SAN PABLO TEPOSCOLULA</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C636">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>SAN PEDRO Y SAN PABLO TEQUIXTEPEC</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TECOMAXTLAHUACA</t>
+          <t>San Sebastián Tecomaxtlahuaca</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C639">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>SANTA CRUZ XITLA</t>
+          <t>Santa Cruz Xitla</t>
         </is>
       </c>
       <c r="C640">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>SANTA INÉS DEL MONTE</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C641">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>SANTA LUCÍA OCOTLÁN</t>
+          <t>Santa Lucía Ocotlán</t>
         </is>
       </c>
       <c r="C642">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>SANTA MARÍA CORTIJO</t>
+          <t>Santa María Cortijo</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>SANTA MARÍA GUIENAGATI</t>
+          <t>Santa María Guienagati</t>
         </is>
       </c>
       <c r="C644">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JALTIANGUIS</t>
+          <t>Santa María Jaltianguis</t>
         </is>
       </c>
       <c r="C645">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>SANTA MARÍA MIXTEQUILLA</t>
+          <t>Santa María Mixtequilla</t>
         </is>
       </c>
       <c r="C646">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>SANTA MARÍA PETAPA</t>
+          <t>Santa María Petapa</t>
         </is>
       </c>
       <c r="C647">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>SANTA MARÍA PEÑOLES</t>
+          <t>Santa María Peñoles</t>
         </is>
       </c>
       <c r="C648">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TEOPOXCO</t>
+          <t>Santa María Teopoxco</t>
         </is>
       </c>
       <c r="C649">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TEXCATITLÁN</t>
+          <t>Santa María Texcatitlán</t>
         </is>
       </c>
       <c r="C650">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TONAMECA</t>
+          <t>Santa María Tonameca</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C652">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C653">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>SANTIAGO LAOLLAGA</t>
+          <t>Santiago Laollaga</t>
         </is>
       </c>
       <c r="C654">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>SANTIAGO LLANO GRANDE</t>
+          <t>Santiago Llano Grande</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>SANTIAGO NILTEPEC</t>
+          <t>Santiago Niltepec</t>
         </is>
       </c>
       <c r="C656">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C657">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>SANTIAGO TAPEXTLA</t>
+          <t>Santiago Tapextla</t>
         </is>
       </c>
       <c r="C658">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>SANTIAGO TETEPEC</t>
+          <t>Santiago Tetepec</t>
         </is>
       </c>
       <c r="C659">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>SANTIAGO TLAZOYALTEPEC</t>
+          <t>Santiago Tlazoyaltepec</t>
         </is>
       </c>
       <c r="C660">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>SANTIAGO XANICA</t>
+          <t>Santiago Xanica</t>
         </is>
       </c>
       <c r="C661">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>SANTIAGO YAVEO</t>
+          <t>Santiago Yaveo</t>
         </is>
       </c>
       <c r="C662">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO ARMENTA</t>
+          <t>Santo Domingo Armenta</t>
         </is>
       </c>
       <c r="C663">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE MORELOS</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C664">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO PETAPA</t>
+          <t>Santo Domingo Petapa</t>
         </is>
       </c>
       <c r="C665">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEHUANTEPEC</t>
+          <t>Santo Domingo Tehuantepec</t>
         </is>
       </c>
       <c r="C666">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>SITIO DE XITLAPEHUA</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C667">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C668">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>VILLA DE ETLA</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C669">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C670">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>ZIMATLÁN DE ÁLVAREZ</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C671">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,12 +9205,12 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C673">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C674">
@@ -9236,7 +9236,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>ACATZINGO</t>
+          <t>Acatzingo</t>
         </is>
       </c>
       <c r="C675">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>AHUAZOTEPEC</t>
+          <t>Ahuazotepec</t>
         </is>
       </c>
       <c r="C676">
@@ -9262,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>AHUEHUETITLA</t>
+          <t>Ahuehuetitla</t>
         </is>
       </c>
       <c r="C677">
@@ -9275,7 +9275,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>AJALPAN</t>
+          <t>Ajalpan</t>
         </is>
       </c>
       <c r="C678">
@@ -9288,7 +9288,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>ALJOJUCA</t>
+          <t>Aljojuca</t>
         </is>
       </c>
       <c r="C679">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>ALTEPEXI</t>
+          <t>Altepexi</t>
         </is>
       </c>
       <c r="C680">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>AMOZOC</t>
+          <t>Amozoc</t>
         </is>
       </c>
       <c r="C681">
@@ -9327,7 +9327,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>ATEMPAN</t>
+          <t>Atempan</t>
         </is>
       </c>
       <c r="C682">
@@ -9340,7 +9340,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>ATEXCAL</t>
+          <t>Atexcal</t>
         </is>
       </c>
       <c r="C683">
@@ -9353,7 +9353,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C684">
@@ -9366,7 +9366,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>ATZITZINTLA</t>
+          <t>Atzitzintla</t>
         </is>
       </c>
       <c r="C685">
@@ -9379,7 +9379,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>CALTEPEC</t>
+          <t>Caltepec</t>
         </is>
       </c>
       <c r="C686">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>CAÑADA MORELOS</t>
+          <t>Cañada Morelos</t>
         </is>
       </c>
       <c r="C687">
@@ -9405,7 +9405,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>CHALCHICOMULA DE SESMA</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C688">
@@ -9418,7 +9418,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C689">
@@ -9431,7 +9431,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>CHIAUTZINGO</t>
+          <t>Chiautzingo</t>
         </is>
       </c>
       <c r="C690">
@@ -9444,7 +9444,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>CHICHIQUILA</t>
+          <t>Chichiquila</t>
         </is>
       </c>
       <c r="C691">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>CHICONCUAUTLA</t>
+          <t>Chiconcuautla</t>
         </is>
       </c>
       <c r="C692">
@@ -9470,7 +9470,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>CHIETLA</t>
+          <t>Chietla</t>
         </is>
       </c>
       <c r="C693">
@@ -9483,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C694">
@@ -9496,7 +9496,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>CHILA</t>
+          <t>Chila</t>
         </is>
       </c>
       <c r="C695">
@@ -9509,7 +9509,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>CORONANGO</t>
+          <t>Coronango</t>
         </is>
       </c>
       <c r="C696">
@@ -9522,7 +9522,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>CUAUTINCHÁN</t>
+          <t>Cuautinchán</t>
         </is>
       </c>
       <c r="C697">
@@ -9535,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>CUAYUCA DE ANDRADE</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C698">
@@ -9548,7 +9548,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
+          <t>Huaquechula</t>
         </is>
       </c>
       <c r="C699">
@@ -9561,7 +9561,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C700">
@@ -9574,7 +9574,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL CHICO</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C701">
@@ -9587,7 +9587,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL GRANDE</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C702">
@@ -9600,7 +9600,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>HUEJOTZINGO</t>
+          <t>Huejotzingo</t>
         </is>
       </c>
       <c r="C703">
@@ -9613,7 +9613,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>IXCAQUIXTLA</t>
+          <t>Ixcaquixtla</t>
         </is>
       </c>
       <c r="C704">
@@ -9626,7 +9626,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>IXTACAMAXTITLÁN</t>
+          <t>Ixtacamaxtitlán</t>
         </is>
       </c>
       <c r="C705">
@@ -9639,7 +9639,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C706">
@@ -9652,7 +9652,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>JALPAN</t>
+          <t>Jalpan</t>
         </is>
       </c>
       <c r="C707">
@@ -9665,7 +9665,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>JOPALA</t>
+          <t>Jopala</t>
         </is>
       </c>
       <c r="C708">
@@ -9678,7 +9678,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>JUAN GALINDO</t>
+          <t>Juan Galindo</t>
         </is>
       </c>
       <c r="C709">
@@ -9691,7 +9691,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>JUAN N. MÉNDEZ</t>
+          <t>Juan N. Méndez</t>
         </is>
       </c>
       <c r="C710">
@@ -9704,7 +9704,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>LIBRES</t>
+          <t>Libres</t>
         </is>
       </c>
       <c r="C711">
@@ -9717,7 +9717,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C712">
@@ -9730,7 +9730,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>NEALTICAN</t>
+          <t>Nealtican</t>
         </is>
       </c>
       <c r="C713">
@@ -9743,7 +9743,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>NOPALUCAN</t>
+          <t>Nopalucan</t>
         </is>
       </c>
       <c r="C714">
@@ -9756,7 +9756,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C715">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>PALMAR DE BRAVO</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C716">
@@ -9782,7 +9782,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>PETLALCINGO</t>
+          <t>Petlalcingo</t>
         </is>
       </c>
       <c r="C717">
@@ -9795,7 +9795,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C718">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>QUECHOLAC</t>
+          <t>Quecholac</t>
         </is>
       </c>
       <c r="C719">
@@ -9821,7 +9821,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>RAFAEL LARA GRAJALES</t>
+          <t>Rafael Lara Grajales</t>
         </is>
       </c>
       <c r="C720">
@@ -9834,7 +9834,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CHOLULA</t>
+          <t>San Andrés Cholula</t>
         </is>
       </c>
       <c r="C721">
@@ -9847,7 +9847,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>SAN ANTONIO CAÑADA</t>
+          <t>San Antonio Cañada</t>
         </is>
       </c>
       <c r="C722">
@@ -9860,7 +9860,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>SAN FELIPE TEOTLALCINGO</t>
+          <t>San Felipe Teotlalcingo</t>
         </is>
       </c>
       <c r="C723">
@@ -9873,7 +9873,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>SAN JUAN ATENCO</t>
+          <t>San Juan Atenco</t>
         </is>
       </c>
       <c r="C724">
@@ -9886,7 +9886,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C725">
@@ -9899,7 +9899,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>SAN MATÍAS TLALANCALECA</t>
+          <t>San Matías Tlalancaleca</t>
         </is>
       </c>
       <c r="C726">
@@ -9912,7 +9912,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>SAN MIGUEL XOXTLA</t>
+          <t>San Miguel Xoxtla</t>
         </is>
       </c>
       <c r="C727">
@@ -9925,7 +9925,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS RANCHOS</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C728">
@@ -9938,7 +9938,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C729">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL SECO</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C730">
@@ -9964,7 +9964,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TLACOTEPEC</t>
+          <t>San Sebastián Tlacotepec</t>
         </is>
       </c>
       <c r="C731">
@@ -9977,7 +9977,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>SANTIAGO MIAHUATLÁN</t>
+          <t>Santiago Miahuatlán</t>
         </is>
       </c>
       <c r="C732">
@@ -9990,7 +9990,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>SOLTEPEC</t>
+          <t>Soltepec</t>
         </is>
       </c>
       <c r="C733">
@@ -10003,7 +10003,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>TECALI DE HERRERA</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C734">
@@ -10016,7 +10016,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C735">
@@ -10029,7 +10029,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C736">
@@ -10042,7 +10042,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>TEHUITZINGO</t>
+          <t>Tehuitzingo</t>
         </is>
       </c>
       <c r="C737">
@@ -10055,7 +10055,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>TEPANCO DE LÓPEZ</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C738">
@@ -10068,7 +10068,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>TEPATLAXCO DE HIDALGO</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C739">
@@ -10081,7 +10081,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C740">
@@ -10094,7 +10094,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>TEPEOJUMA</t>
+          <t>Tepeojuma</t>
         </is>
       </c>
       <c r="C741">
@@ -10107,7 +10107,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C742">
@@ -10120,7 +10120,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>TEPEYAHUALCO</t>
+          <t>Tepeyahualco</t>
         </is>
       </c>
       <c r="C743">
@@ -10133,7 +10133,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>TETELA DE OCAMPO</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C744">
@@ -10146,7 +10146,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C745">
@@ -10159,7 +10159,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>TIANGUISMANALCO</t>
+          <t>Tianguismanalco</t>
         </is>
       </c>
       <c r="C746">
@@ -10172,7 +10172,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>TLACHICHUCA</t>
+          <t>Tlachichuca</t>
         </is>
       </c>
       <c r="C747">
@@ -10185,7 +10185,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C748">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>TLACUILOTEPEC</t>
+          <t>Tlacuilotepec</t>
         </is>
       </c>
       <c r="C749">
@@ -10211,7 +10211,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C750">
@@ -10224,7 +10224,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>TLAOLA</t>
+          <t>Tlaola</t>
         </is>
       </c>
       <c r="C751">
@@ -10237,7 +10237,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C752">
@@ -10250,7 +10250,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>TZICATLACOYAN</t>
+          <t>Tzicatlacoyan</t>
         </is>
       </c>
       <c r="C753">
@@ -10263,7 +10263,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C754">
@@ -10276,7 +10276,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C755">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C756">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>XOCHILTEPEC</t>
+          <t>Xochiltepec</t>
         </is>
       </c>
       <c r="C757">
@@ -10315,7 +10315,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>XOCHITLÁN TODOS SANTOS</t>
+          <t>Xochitlán Todos Santos</t>
         </is>
       </c>
       <c r="C758">
@@ -10328,7 +10328,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>YEHUALTEPEC</t>
+          <t>Yehualtepec</t>
         </is>
       </c>
       <c r="C759">
@@ -10341,7 +10341,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>ZACAPALA</t>
+          <t>Zacapala</t>
         </is>
       </c>
       <c r="C760">
@@ -10354,7 +10354,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C761">
@@ -10367,7 +10367,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C762">
@@ -10380,7 +10380,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>ZINACATEPEC</t>
+          <t>Zinacatepec</t>
         </is>
       </c>
       <c r="C763">
@@ -10393,7 +10393,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>ZOQUITLÁN</t>
+          <t>Zoquitlán</t>
         </is>
       </c>
       <c r="C764">
@@ -10406,7 +10406,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C765">
@@ -10419,12 +10419,12 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C766">
@@ -10437,7 +10437,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C767">
@@ -10450,7 +10450,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>CORREGIDORA</t>
+          <t>Corregidora</t>
         </is>
       </c>
       <c r="C768">
@@ -10463,7 +10463,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C769">
@@ -10476,7 +10476,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C770">
@@ -10489,7 +10489,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>TEQUISQUIAPAN</t>
+          <t>Tequisquiapan</t>
         </is>
       </c>
       <c r="C771">
@@ -10502,7 +10502,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C772">
@@ -10515,12 +10515,12 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C773">
@@ -10533,7 +10533,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>JOSÉ MARÍA MORELOS</t>
+          <t>José María Morelos</t>
         </is>
       </c>
       <c r="C774">
@@ -10546,7 +10546,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C775">
@@ -10559,7 +10559,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C776">
@@ -10572,12 +10572,12 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>AHUALULCO</t>
+          <t>Ahualulco</t>
         </is>
       </c>
       <c r="C777">
@@ -10590,7 +10590,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>CERRITOS</t>
+          <t>Cerritos</t>
         </is>
       </c>
       <c r="C778">
@@ -10603,7 +10603,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>CHARCAS</t>
+          <t>Charcas</t>
         </is>
       </c>
       <c r="C779">
@@ -10616,7 +10616,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C780">
@@ -10629,7 +10629,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>MEXQUITIC DE CARMONA</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C781">
@@ -10642,7 +10642,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C782">
@@ -10655,7 +10655,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C783">
@@ -10668,7 +10668,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL RÍO</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C784">
@@ -10681,7 +10681,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
       <c r="C785">
@@ -10694,7 +10694,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>TAMUÍN</t>
+          <t>Tamuín</t>
         </is>
       </c>
       <c r="C786">
@@ -10707,7 +10707,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>VENADO</t>
+          <t>Venado</t>
         </is>
       </c>
       <c r="C787">
@@ -10720,7 +10720,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>VILLA DE ARISTA</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C788">
@@ -10733,7 +10733,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>VILLA DE ARRIAGA</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C789">
@@ -10746,7 +10746,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C790">
@@ -10759,7 +10759,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>VILLA JUÁREZ</t>
+          <t>Villa Juárez</t>
         </is>
       </c>
       <c r="C791">
@@ -10772,7 +10772,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>XILITLA</t>
+          <t>Xilitla</t>
         </is>
       </c>
       <c r="C792">
@@ -10785,7 +10785,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C793">
@@ -10798,12 +10798,12 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C794">
@@ -10816,7 +10816,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>ANGOSTURA</t>
+          <t>Angostura</t>
         </is>
       </c>
       <c r="C795">
@@ -10829,7 +10829,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>BADIRAGUATO</t>
+          <t>Badiraguato</t>
         </is>
       </c>
       <c r="C796">
@@ -10842,7 +10842,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>CHOIX</t>
+          <t>Choix</t>
         </is>
       </c>
       <c r="C797">
@@ -10855,7 +10855,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>COSALÁ</t>
+          <t>Cosalá</t>
         </is>
       </c>
       <c r="C798">
@@ -10868,7 +10868,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C799">
@@ -10881,7 +10881,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>EL FUERTE</t>
+          <t>El Fuerte</t>
         </is>
       </c>
       <c r="C800">
@@ -10894,7 +10894,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>ESCUINAPA</t>
+          <t>Escuinapa</t>
         </is>
       </c>
       <c r="C801">
@@ -10907,7 +10907,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C802">
@@ -10920,7 +10920,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>MAZATLÁN</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="C803">
@@ -10933,7 +10933,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>MOCORITO</t>
+          <t>Mocorito</t>
         </is>
       </c>
       <c r="C804">
@@ -10946,7 +10946,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>NAVOLATO</t>
+          <t>Navolato</t>
         </is>
       </c>
       <c r="C805">
@@ -10959,7 +10959,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C806">
@@ -10972,7 +10972,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>SALVADOR ALVARADO</t>
+          <t>Salvador Alvarado</t>
         </is>
       </c>
       <c r="C807">
@@ -10985,7 +10985,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C808">
@@ -10998,7 +10998,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C809">
@@ -11011,12 +11011,12 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>AGUA PRIETA</t>
+          <t>Agua Prieta</t>
         </is>
       </c>
       <c r="C810">
@@ -11029,7 +11029,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>ALAMOS</t>
+          <t>Alamos</t>
         </is>
       </c>
       <c r="C811">
@@ -11042,7 +11042,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>BACERAC</t>
+          <t>Bacerac</t>
         </is>
       </c>
       <c r="C812">
@@ -11055,7 +11055,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>BAVISPE</t>
+          <t>Bavispe</t>
         </is>
       </c>
       <c r="C813">
@@ -11068,7 +11068,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>CABORCA</t>
+          <t>Caborca</t>
         </is>
       </c>
       <c r="C814">
@@ -11081,7 +11081,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C815">
@@ -11094,7 +11094,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>CANANEA</t>
+          <t>Cananea</t>
         </is>
       </c>
       <c r="C816">
@@ -11107,7 +11107,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>GUAYMAS</t>
+          <t>Guaymas</t>
         </is>
       </c>
       <c r="C817">
@@ -11120,7 +11120,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C818">
@@ -11133,7 +11133,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>HUATABAMPO</t>
+          <t>Huatabampo</t>
         </is>
       </c>
       <c r="C819">
@@ -11146,7 +11146,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>NACOZARI DE GARCÍA</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C820">
@@ -11159,7 +11159,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>NAVOJOA</t>
+          <t>Navojoa</t>
         </is>
       </c>
       <c r="C821">
@@ -11172,7 +11172,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C822">
@@ -11185,7 +11185,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>PUERTO PEÑASCO</t>
+          <t>Puerto Peñasco</t>
         </is>
       </c>
       <c r="C823">
@@ -11198,7 +11198,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>SAHUARIPA</t>
+          <t>Sahuaripa</t>
         </is>
       </c>
       <c r="C824">
@@ -11211,7 +11211,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>SAN LUIS RÍO COLORADO</t>
+          <t>San Luis Río Colorado</t>
         </is>
       </c>
       <c r="C825">
@@ -11224,7 +11224,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="C826">
@@ -11237,7 +11237,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>SÁRIC</t>
+          <t>Sáric</t>
         </is>
       </c>
       <c r="C827">
@@ -11250,7 +11250,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C828">
@@ -11263,12 +11263,12 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C829">
@@ -11281,7 +11281,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>CUNDUACÁN</t>
+          <t>Cunduacán</t>
         </is>
       </c>
       <c r="C830">
@@ -11294,7 +11294,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C831">
@@ -11307,7 +11307,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C832">
@@ -11320,7 +11320,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>PARAÍSO</t>
+          <t>Paraíso</t>
         </is>
       </c>
       <c r="C833">
@@ -11333,7 +11333,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C834">
@@ -11346,12 +11346,12 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C835">
@@ -11364,7 +11364,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C836">
@@ -11377,7 +11377,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C837">
@@ -11390,7 +11390,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C838">
@@ -11403,7 +11403,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>RÍO BRAVO</t>
+          <t>Río Bravo</t>
         </is>
       </c>
       <c r="C839">
@@ -11416,7 +11416,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>SOTO LA MARINA</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C840">
@@ -11429,7 +11429,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C841">
@@ -11442,7 +11442,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>TULA</t>
+          <t>Tula</t>
         </is>
       </c>
       <c r="C842">
@@ -11455,7 +11455,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C843">
@@ -11468,7 +11468,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>XICOTÉNCATL</t>
+          <t>Xicoténcatl</t>
         </is>
       </c>
       <c r="C844">
@@ -11481,7 +11481,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C845">
@@ -11494,12 +11494,12 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>APIZACO</t>
+          <t>Apizaco</t>
         </is>
       </c>
       <c r="C846">
@@ -11512,7 +11512,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>ATLTZAYANCA</t>
+          <t>Atltzayanca</t>
         </is>
       </c>
       <c r="C847">
@@ -11525,7 +11525,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>CALPULALPAN</t>
+          <t>Calpulalpan</t>
         </is>
       </c>
       <c r="C848">
@@ -11538,7 +11538,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C849">
@@ -11551,7 +11551,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>ESPAÑITA</t>
+          <t>Españita</t>
         </is>
       </c>
       <c r="C850">
@@ -11564,7 +11564,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C851">
@@ -11577,7 +11577,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>IXTACUIXTLA DE MARIANO MATAMOROS</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C852">
@@ -11590,7 +11590,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>MAZATECOCHCO DE JOSÉ MARÍA MORELOS</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C853">
@@ -11603,7 +11603,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>NATÍVITAS</t>
+          <t>Natívitas</t>
         </is>
       </c>
       <c r="C854">
@@ -11616,7 +11616,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>PAPALOTLA DE XICOHTÉNCATL</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C855">
@@ -11629,7 +11629,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO TETLANOHCAN</t>
+          <t>San Francisco Tetlanohcan</t>
         </is>
       </c>
       <c r="C856">
@@ -11642,7 +11642,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>SANCTÓRUM DE LÁZARO CÁRDENAS</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C857">
@@ -11655,7 +11655,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>TERRENATE</t>
+          <t>Terrenate</t>
         </is>
       </c>
       <c r="C858">
@@ -11668,7 +11668,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>TETLA DE LA SOLIDARIDAD</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C859">
@@ -11681,7 +11681,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>TETLATLAHUCA</t>
+          <t>Tetlatlahuca</t>
         </is>
       </c>
       <c r="C860">
@@ -11694,7 +11694,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C861">
@@ -11707,7 +11707,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>TOTOLAC</t>
+          <t>Totolac</t>
         </is>
       </c>
       <c r="C862">
@@ -11720,7 +11720,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>XALOZTOC</t>
+          <t>Xaloztoc</t>
         </is>
       </c>
       <c r="C863">
@@ -11733,7 +11733,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>XALTOCAN</t>
+          <t>Xaltocan</t>
         </is>
       </c>
       <c r="C864">
@@ -11746,7 +11746,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C865">
@@ -11759,12 +11759,12 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C866">
@@ -11777,7 +11777,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>ACAYUCAN</t>
+          <t>Acayucan</t>
         </is>
       </c>
       <c r="C867">
@@ -11790,7 +11790,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>ACULTZINGO</t>
+          <t>Acultzingo</t>
         </is>
       </c>
       <c r="C868">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>ALPATLÁHUAC</t>
+          <t>Alpatláhuac</t>
         </is>
       </c>
       <c r="C869">
@@ -11816,7 +11816,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>ALTO LUCERO DE GUTIÉRREZ BARRIOS</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C870">
@@ -11829,7 +11829,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C871">
@@ -11842,7 +11842,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>ALVARADO</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="C872">
@@ -11855,7 +11855,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>AMATLÁN DE LOS REYES</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C873">
@@ -11868,7 +11868,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>ANGEL R. CABADA</t>
+          <t>Angel R. Cabada</t>
         </is>
       </c>
       <c r="C874">
@@ -11881,7 +11881,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C875">
@@ -11894,7 +11894,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>CAMERINO Z. MENDOZA</t>
+          <t>Camerino Z. Mendoza</t>
         </is>
       </c>
       <c r="C876">
@@ -11907,7 +11907,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>CASTILLO DE TEAYO</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C877">
@@ -11920,7 +11920,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>CATEMACO</t>
+          <t>Catemaco</t>
         </is>
       </c>
       <c r="C878">
@@ -11933,7 +11933,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>CHACALTIANGUIS</t>
+          <t>Chacaltianguis</t>
         </is>
       </c>
       <c r="C879">
@@ -11946,7 +11946,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>CHOCAMÁN</t>
+          <t>Chocamán</t>
         </is>
       </c>
       <c r="C880">
@@ -11959,7 +11959,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>CHONTLA</t>
+          <t>Chontla</t>
         </is>
       </c>
       <c r="C881">
@@ -11972,7 +11972,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>COATEPEC</t>
+          <t>Coatepec</t>
         </is>
       </c>
       <c r="C882">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C883">
@@ -11998,7 +11998,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>COLIPA</t>
+          <t>Colipa</t>
         </is>
       </c>
       <c r="C884">
@@ -12011,7 +12011,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C885">
@@ -12024,7 +12024,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C886">
@@ -12037,7 +12037,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>COSOLEACAQUE</t>
+          <t>Cosoleacaque</t>
         </is>
       </c>
       <c r="C887">
@@ -12050,7 +12050,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>COTAXTLA</t>
+          <t>Cotaxtla</t>
         </is>
       </c>
       <c r="C888">
@@ -12063,7 +12063,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>COYUTLA</t>
+          <t>Coyutla</t>
         </is>
       </c>
       <c r="C889">
@@ -12076,7 +12076,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>CUICHAPA</t>
+          <t>Cuichapa</t>
         </is>
       </c>
       <c r="C890">
@@ -12089,7 +12089,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>CUITLÁHUAC</t>
+          <t>Cuitláhuac</t>
         </is>
       </c>
       <c r="C891">
@@ -12102,7 +12102,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C892">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>ESPINAL</t>
+          <t>Espinal</t>
         </is>
       </c>
       <c r="C893">
@@ -12128,7 +12128,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>FORTÍN</t>
+          <t>Fortín</t>
         </is>
       </c>
       <c r="C894">
@@ -12141,7 +12141,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C895">
@@ -12154,7 +12154,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C896">
@@ -12167,7 +12167,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>ISLA</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C897">
@@ -12180,7 +12180,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>IXHUACÁN DE LOS REYES</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C898">
@@ -12193,7 +12193,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DE MADERO</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C899">
@@ -12206,7 +12206,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>IXTACZOQUITLÁN</t>
+          <t>Ixtaczoquitlán</t>
         </is>
       </c>
       <c r="C900">
@@ -12219,7 +12219,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C901">
@@ -12232,7 +12232,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>JOSÉ AZUETA</t>
+          <t>José Azueta</t>
         </is>
       </c>
       <c r="C902">
@@ -12245,7 +12245,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C903">
@@ -12258,7 +12258,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>JUCHIQUE DE FERRER</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C904">
@@ -12271,7 +12271,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>JÁLTIPAN</t>
+          <t>Jáltipan</t>
         </is>
       </c>
       <c r="C905">
@@ -12284,7 +12284,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C906">
@@ -12297,7 +12297,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>LERDO DE TEJADA</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C907">
@@ -12310,7 +12310,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>MALTRATA</t>
+          <t>Maltrata</t>
         </is>
       </c>
       <c r="C908">
@@ -12323,7 +12323,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C909">
@@ -12336,7 +12336,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN</t>
+          <t>Miahuatlán</t>
         </is>
       </c>
       <c r="C910">
@@ -12349,7 +12349,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C911">
@@ -12362,7 +12362,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>MISANTLA</t>
+          <t>Misantla</t>
         </is>
       </c>
       <c r="C912">
@@ -12375,7 +12375,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C913">
@@ -12388,7 +12388,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C914">
@@ -12401,7 +12401,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>PASO DE OVEJAS</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C915">
@@ -12414,7 +12414,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>PASO DEL MACHO</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C916">
@@ -12427,7 +12427,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C917">
@@ -12440,7 +12440,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C918">
@@ -12453,7 +12453,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>PUENTE NACIONAL</t>
+          <t>Puente Nacional</t>
         </is>
       </c>
       <c r="C919">
@@ -12466,7 +12466,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>PÁNUCO</t>
+          <t>Pánuco</t>
         </is>
       </c>
       <c r="C920">
@@ -12479,7 +12479,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C921">
@@ -12492,7 +12492,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C922">
@@ -12505,7 +12505,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>SANTIAGO TUXTLA</t>
+          <t>Santiago Tuxtla</t>
         </is>
       </c>
       <c r="C923">
@@ -12518,7 +12518,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>SOLEDAD ATZOMPA</t>
+          <t>Soledad Atzompa</t>
         </is>
       </c>
       <c r="C924">
@@ -12531,7 +12531,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>TANTIMA</t>
+          <t>Tantima</t>
         </is>
       </c>
       <c r="C925">
@@ -12544,7 +12544,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>TANTOYUCA</t>
+          <t>Tantoyuca</t>
         </is>
       </c>
       <c r="C926">
@@ -12557,7 +12557,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>TATAHUICAPAN DE JUÁREZ</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C927">
@@ -12570,7 +12570,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>TECOLUTLA</t>
+          <t>Tecolutla</t>
         </is>
       </c>
       <c r="C928">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>TEHUIPANGO</t>
+          <t>Tehuipango</t>
         </is>
       </c>
       <c r="C929">
@@ -12596,7 +12596,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>TEMPOAL</t>
+          <t>Tempoal</t>
         </is>
       </c>
       <c r="C930">
@@ -12609,7 +12609,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C931">
@@ -12622,7 +12622,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C932">
@@ -12635,7 +12635,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>TIHUATLÁN</t>
+          <t>Tihuatlán</t>
         </is>
       </c>
       <c r="C933">
@@ -12648,7 +12648,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C934">
@@ -12661,7 +12661,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>TLALTETELA</t>
+          <t>Tlaltetela</t>
         </is>
       </c>
       <c r="C935">
@@ -12674,7 +12674,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C936">
@@ -12687,7 +12687,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C937">
@@ -12700,7 +12700,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C938">
@@ -12713,7 +12713,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>XICO</t>
+          <t>Xico</t>
         </is>
       </c>
       <c r="C939">
@@ -12726,7 +12726,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>YANGA</t>
+          <t>Yanga</t>
         </is>
       </c>
       <c r="C940">
@@ -12739,7 +12739,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>YECUATLA</t>
+          <t>Yecuatla</t>
         </is>
       </c>
       <c r="C941">
@@ -12752,7 +12752,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C942">
@@ -12765,7 +12765,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C943">
@@ -12778,7 +12778,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C944">
@@ -12791,12 +12791,12 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>BUCTZOTZ</t>
+          <t>Buctzotz</t>
         </is>
       </c>
       <c r="C945">
@@ -12809,7 +12809,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>CENOTILLO</t>
+          <t>Cenotillo</t>
         </is>
       </c>
       <c r="C946">
@@ -12822,7 +12822,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C947">
@@ -12835,7 +12835,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>OXKUTZCAB</t>
+          <t>Oxkutzcab</t>
         </is>
       </c>
       <c r="C948">
@@ -12848,7 +12848,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>TEKAX</t>
+          <t>Tekax</t>
         </is>
       </c>
       <c r="C949">
@@ -12861,7 +12861,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>TICUL</t>
+          <t>Ticul</t>
         </is>
       </c>
       <c r="C950">
@@ -12874,7 +12874,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>TZUCACAB</t>
+          <t>Tzucacab</t>
         </is>
       </c>
       <c r="C951">
@@ -12887,7 +12887,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>UMÁN</t>
+          <t>Umán</t>
         </is>
       </c>
       <c r="C952">
@@ -12900,7 +12900,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>VALLADOLID</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="C953">
@@ -12913,7 +12913,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C954">
@@ -12926,12 +12926,12 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>ATOLINGA</t>
+          <t>Atolinga</t>
         </is>
       </c>
       <c r="C955">
@@ -12944,7 +12944,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C956">
@@ -12957,7 +12957,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>CALERA</t>
+          <t>Calera</t>
         </is>
       </c>
       <c r="C957">
@@ -12970,7 +12970,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>CHALCHIHUITES</t>
+          <t>Chalchihuites</t>
         </is>
       </c>
       <c r="C958">
@@ -12983,7 +12983,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>CONCEPCIÓN DEL ORO</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C959">
@@ -12996,7 +12996,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C960">
@@ -13009,7 +13009,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C961">
@@ -13022,7 +13022,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>GENARO CODINA</t>
+          <t>Genaro Codina</t>
         </is>
       </c>
       <c r="C962">
@@ -13035,7 +13035,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C963">
@@ -13048,7 +13048,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>JALPA</t>
+          <t>Jalpa</t>
         </is>
       </c>
       <c r="C964">
@@ -13061,7 +13061,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>JEREZ</t>
+          <t>Jerez</t>
         </is>
       </c>
       <c r="C965">
@@ -13074,7 +13074,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>Loreto</t>
         </is>
       </c>
       <c r="C966">
@@ -13087,7 +13087,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>MEZQUITAL DEL ORO</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C967">
@@ -13100,7 +13100,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>MIGUEL AUZA</t>
+          <t>Miguel Auza</t>
         </is>
       </c>
       <c r="C968">
@@ -13113,7 +13113,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>NORIA DE ÁNGELES</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C969">
@@ -13126,7 +13126,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C970">
@@ -13139,7 +13139,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C971">
@@ -13152,7 +13152,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>SAIN ALTO</t>
+          <t>Sain Alto</t>
         </is>
       </c>
       <c r="C972">
@@ -13165,7 +13165,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C973">
@@ -13178,7 +13178,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>SUSTICACÁN</t>
+          <t>Susticacán</t>
         </is>
       </c>
       <c r="C974">
@@ -13191,7 +13191,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="C975">
@@ -13204,7 +13204,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>TEPECHITLÁN</t>
+          <t>Tepechitlán</t>
         </is>
       </c>
       <c r="C976">
@@ -13217,7 +13217,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>TEPETONGO</t>
+          <t>Tepetongo</t>
         </is>
       </c>
       <c r="C977">
@@ -13230,7 +13230,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>TEÚL DE GONZÁLEZ ORTEGA</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C978">
@@ -13243,7 +13243,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>TLALTENANGO DE SÁNCHEZ ROMÁN</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C979">
@@ -13256,7 +13256,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>TRINIDAD GARCÍA DE LA CADENA</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C980">
@@ -13269,7 +13269,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C981">
@@ -13282,7 +13282,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>VETAGRANDE</t>
+          <t>Vetagrande</t>
         </is>
       </c>
       <c r="C982">
@@ -13295,7 +13295,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C983">
@@ -13308,7 +13308,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>VILLANUEVA</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="C984">
@@ -13321,7 +13321,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C985">
@@ -13334,7 +13334,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C986">
@@ -13347,7 +13347,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C987">
@@ -13355,41 +13355,6 @@
       </c>
       <c r="D987">
         <v>1</v>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>
